--- a/analytics/January 2025/A/analytics.xlsx
+++ b/analytics/January 2025/A/analytics.xlsx
@@ -470,13 +470,13 @@
         <v>10900223098</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>33.33333333333333</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         <v>10900223107</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>33.33333333333333</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +508,13 @@
         <v>10900223078</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>66.66666666666666</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>10900223111</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>66.66666666666666</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>10900223069</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>33.33333333333333</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
@@ -565,13 +565,13 @@
         <v>10900223084</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>33.33333333333333</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +584,13 @@
         <v>10900223089</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>33.33333333333333</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
@@ -603,13 +603,13 @@
         <v>10900223110</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>33.33333333333333</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
